--- a/APM files/122645173/Cozy Suites - Properties List.xlsx
+++ b/APM files/122645173/Cozy Suites - Properties List.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE4C701-BFA5-4BFE-A81D-DA897CB62ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEF9BC2-244D-44D0-8143-80D0C0720626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10695" yWindow="3720" windowWidth="22830" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2655" yWindow="3750" windowWidth="22830" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,66 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Properties List</t>
-  </si>
-  <si>
-    <t>100738319</t>
-  </si>
-  <si>
-    <t>100968675</t>
-  </si>
-  <si>
-    <t>101202676</t>
-  </si>
-  <si>
-    <t>100993053</t>
-  </si>
-  <si>
-    <t>100993455</t>
-  </si>
-  <si>
-    <t>100994622</t>
-  </si>
-  <si>
-    <t>101081621</t>
-  </si>
-  <si>
-    <t>101080544</t>
-  </si>
-  <si>
-    <t>101080969</t>
-  </si>
-  <si>
-    <t>101081241</t>
-  </si>
-  <si>
-    <t>101081711</t>
-  </si>
-  <si>
-    <t>100515558</t>
-  </si>
-  <si>
-    <t>100296393</t>
-  </si>
-  <si>
-    <t>100898320</t>
-  </si>
-  <si>
-    <t>100898575</t>
-  </si>
-  <si>
-    <t>100332070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99899973 </t>
-  </si>
-  <si>
-    <t>100165431</t>
-  </si>
-  <si>
-    <t>100776755</t>
   </si>
 </sst>
 </file>
@@ -152,10 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,98 +419,93 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
+      <c r="A2">
+        <v>100776755</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
+      <c r="A3">
+        <v>100738319</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
+      <c r="A4">
+        <v>100968675</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
+      <c r="A5">
+        <v>101202676</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
+      <c r="A6">
+        <v>100993053</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
+      <c r="A7">
+        <v>100993455</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
+      <c r="A8">
+        <v>100994622</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
+      <c r="A9">
+        <v>101081621</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
+      <c r="A10">
+        <v>101080544</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
+      <c r="A11">
+        <v>101080969</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
+      <c r="A12">
+        <v>101081241</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
+      <c r="A13">
+        <v>101081711</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
+      <c r="A14">
+        <v>100515558</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
+      <c r="A15">
+        <v>100296393</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
+      <c r="A16">
+        <v>100898320</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
+      <c r="A17">
+        <v>100898575</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
+      <c r="A18">
+        <v>100332070</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
+      <c r="A19">
+        <v>100165431</v>
       </c>
     </row>
   </sheetData>
